--- a/ISEF App WinForm/Data/Hlavicky/hltallfkoro.xlsx
+++ b/ISEF App WinForm/Data/Hlavicky/hltallfkoro.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rneme\source\repos\isef\Data Processing Library\Hlavicky\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondrej.ferenci\AppData\Roaming\CVTI SR\ISEF Data Processing\Hlavicky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F34610-E1FB-4013-9DB7-CC176D84108F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="657" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="657"/>
   </bookViews>
   <sheets>
     <sheet name="Zostava  j" sheetId="6" r:id="rId1"/>
@@ -125,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -358,31 +357,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,7 +369,16 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -407,9 +390,25 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,175 +423,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11366" name="Freeform 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000662C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10800000">
-          <a:off x="781050" y="219075"/>
-          <a:ext cx="11772900" cy="200025"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="T0" fmla="*/ 0 w 7860"/>
-            <a:gd name="T1" fmla="*/ 0 h 1"/>
-            <a:gd name="T2" fmla="*/ 2147483646 w 7860"/>
-            <a:gd name="T3" fmla="*/ 0 h 1"/>
-            <a:gd name="T4" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T5" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T6" fmla="*/ 0 w 7860"/>
-            <a:gd name="T7" fmla="*/ 0 h 1"/>
-            <a:gd name="T8" fmla="*/ 7860 w 7860"/>
-            <a:gd name="T9" fmla="*/ 1 h 1"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="T4">
-              <a:pos x="T0" y="T1"/>
-            </a:cxn>
-            <a:cxn ang="T5">
-              <a:pos x="T2" y="T3"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="T6" t="T7" r="T8" b="T9"/>
-          <a:pathLst>
-            <a:path w="7860" h="1">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="7860" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="22225">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11367" name="Obrázok 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000672C0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="76200" y="47625"/>
-          <a:ext cx="571500" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív balíka Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -667,23 +499,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -719,23 +534,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -911,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2782"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="64" workbookViewId="0">
@@ -963,11 +761,11 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -1011,110 +809,110 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="25" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="22" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="22" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="35"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="29"/>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="21" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="23"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -48344,15 +48142,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
@@ -48364,6 +48153,15 @@
     <mergeCell ref="K5:O5"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0" header="0" footer="0"/>
@@ -48371,6 +48169,5 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="15" min="1" max="52" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>